--- a/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1386790219481699</v>
+        <v>0.1410512272951927</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2027898322821219</v>
+        <v>0.2020679647059171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2461638771732227</v>
+        <v>0.2453873735641228</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4137034419731642</v>
+        <v>0.4078333812768594</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4935860503331745</v>
+        <v>0.4902908900808827</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5338604920621249</v>
+        <v>0.5271455268357961</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.586032352214406</v>
+        <v>0.5856769949489747</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6129586000854818</v>
+        <v>0.6121827582153374</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.318581790334531</v>
+        <v>0.3203013430518803</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3728724621450391</v>
+        <v>0.3734068839487564</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4229115687800878</v>
+        <v>0.426084161629427</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5303266543896076</v>
+        <v>0.5211877941842842</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2131748729264729</v>
+        <v>0.2090475604054659</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2863280232547185</v>
+        <v>0.2826336066810555</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.334746515056578</v>
+        <v>0.3364051881184504</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5776112459253899</v>
+        <v>0.5719535623265614</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.580267649122969</v>
+        <v>0.5759553676903616</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6283798263411972</v>
+        <v>0.6235744462407339</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6805623291497676</v>
+        <v>0.680394805604061</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7539386955696825</v>
+        <v>0.7468171304750334</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3794763492537661</v>
+        <v>0.3819901634376997</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4391162995191323</v>
+        <v>0.4372064263309507</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4934113861024705</v>
+        <v>0.4932008582799735</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6358969760363137</v>
+        <v>0.6297633005614558</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.5941891860264099</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6568936673576009</v>
+        <v>0.6568936673576011</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8616311923819818</v>
@@ -833,7 +833,7 @@
         <v>0.7362914122474855</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.7960075129122215</v>
+        <v>0.7960075129122216</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3857883200935034</v>
+        <v>0.3845453826176338</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4605920390108766</v>
+        <v>0.4618678354202954</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5501297486674039</v>
+        <v>0.5499247469328704</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5945800070049443</v>
+        <v>0.6035416578746597</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8307722775499382</v>
+        <v>0.8340782759845241</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8519819837625331</v>
+        <v>0.8546320104324915</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8542535113558462</v>
+        <v>0.8566946909257562</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8936762018829805</v>
+        <v>0.9004399285836238</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5968418207538646</v>
+        <v>0.5959388971291625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6525774426025394</v>
+        <v>0.6506584273854998</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7079409593027838</v>
+        <v>0.7095174626361342</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7606378926196337</v>
+        <v>0.7593469168007655</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4580106518239889</v>
+        <v>0.4615227662974823</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5368944636014826</v>
+        <v>0.5411690127703233</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6326779590479792</v>
+        <v>0.6336043771277849</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7095405340721217</v>
+        <v>0.7121657137042571</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8864339501204851</v>
+        <v>0.8862982871692112</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9079958258516319</v>
+        <v>0.9063634135421308</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9084411813530487</v>
+        <v>0.9102431250307749</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9506992675079438</v>
+        <v>0.9538090108432365</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6537837441473615</v>
+        <v>0.6499708633796354</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7063612727395454</v>
+        <v>0.7052497044361745</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7593098645390201</v>
+        <v>0.7610262890742646</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8257195212418127</v>
+        <v>0.8256541726357143</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.8144926752553543</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8625617772236068</v>
+        <v>0.8625617772236067</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.367907719813573</v>
+        <v>0.3720626659123033</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5338844126337929</v>
+        <v>0.5334209064370546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6301007489155583</v>
+        <v>0.6326136488448629</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7129435070769995</v>
+        <v>0.7104887426730835</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9105537555838015</v>
+        <v>0.9108773714536782</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9186621184232352</v>
+        <v>0.9224587988610188</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9407666289028382</v>
+        <v>0.9406043076632131</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9581312597235749</v>
+        <v>0.9568882712795587</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.65667477904671</v>
+        <v>0.6532604287163376</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7380007995664538</v>
+        <v>0.7362692464548849</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7921460496608947</v>
+        <v>0.7925911592306335</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8420836261609278</v>
+        <v>0.8378393249083881</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4521880007831293</v>
+        <v>0.4520915923475401</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6102552482258583</v>
+        <v>0.6123883402532122</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7064742223827239</v>
+        <v>0.7063076450972237</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7874308343600523</v>
+        <v>0.7851786859391875</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9485552122320428</v>
+        <v>0.949413446704494</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9591438960186636</v>
+        <v>0.960176157023364</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9738150900021987</v>
+        <v>0.9725779483355131</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9800581787796102</v>
+        <v>0.9800998114469552</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7069665962942406</v>
+        <v>0.7058993714474096</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7828973826050758</v>
+        <v>0.7831543092450117</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8340264028910055</v>
+        <v>0.8350727230357247</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8818600659225219</v>
+        <v>0.8801805749618231</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.9530274166219697</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9733254142833284</v>
+        <v>0.9733254142833283</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.6361232871076486</v>
@@ -1105,7 +1105,7 @@
         <v>0.7744954552595921</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.8515841835118505</v>
+        <v>0.8515841835118507</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2915277602450118</v>
+        <v>0.2901145527178921</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4458807823748135</v>
+        <v>0.4469665015204723</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5542512605292989</v>
+        <v>0.5567590999551556</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6868312196273948</v>
+        <v>0.6895166715940072</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9184826892295944</v>
+        <v>0.9193986640658213</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9081097727280559</v>
+        <v>0.9088178998613282</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.933591508830072</v>
+        <v>0.9326726439527386</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9621156429993137</v>
+        <v>0.9630119685564533</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6067347962930925</v>
+        <v>0.6056056808295984</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6816694754874725</v>
+        <v>0.6841573845418997</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7513849913012086</v>
+        <v>0.7486824003732869</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8343540534549657</v>
+        <v>0.832713308521469</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3802831414140703</v>
+        <v>0.3757949532525064</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5310195909196123</v>
+        <v>0.5275917640564608</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6341274482694372</v>
+        <v>0.638060606890774</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7579998937327339</v>
+        <v>0.7598905469971212</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9611635915959074</v>
+        <v>0.9602949423470116</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9529399076109812</v>
+        <v>0.9525240668603024</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9673697876172903</v>
+        <v>0.9669653215291588</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9820008665336117</v>
+        <v>0.98286496594589</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6679329793127091</v>
+        <v>0.6678292159002827</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7375087387954281</v>
+        <v>0.7382098978623989</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7986766419098354</v>
+        <v>0.7984540888001819</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8703617594353797</v>
+        <v>0.8705978116322851</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.510888454321008</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6868519075019465</v>
+        <v>0.6868519075019464</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9456475350866181</v>
@@ -1229,7 +1229,7 @@
         <v>0.9543147534758861</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9697629513003423</v>
+        <v>0.9697629513003425</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.606787440485943</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2115316698880994</v>
+        <v>0.2109711132512359</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3332367762109507</v>
+        <v>0.3339779320059483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4622409646178902</v>
+        <v>0.4635918732585159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6499848930777268</v>
+        <v>0.6496191472253049</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9180526674168477</v>
+        <v>0.9199323237272109</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8659456283941569</v>
+        <v>0.8699706320075378</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9309188320776745</v>
+        <v>0.9327282992245208</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9576654144555552</v>
+        <v>0.9571282127452969</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5726418633007151</v>
+        <v>0.5712537832353483</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6148636716542163</v>
+        <v>0.6123655746675243</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7063262052880536</v>
+        <v>0.7078201537242036</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8092150566350997</v>
+        <v>0.8068047371895128</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.299814497977947</v>
+        <v>0.3011813010504662</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4316146068682001</v>
+        <v>0.4330226202976506</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5568601922112054</v>
+        <v>0.5578564887464976</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7208084299282244</v>
+        <v>0.7195258538190414</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9645733851951523</v>
+        <v>0.9659268209694002</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9256698951238707</v>
+        <v>0.9298038643157958</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9718832502060318</v>
+        <v>0.9708858166635318</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9795526260077375</v>
+        <v>0.9796728664553978</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.642736194813712</v>
+        <v>0.6391275107460146</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6821246889781385</v>
+        <v>0.6816381556332264</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7664588544756198</v>
+        <v>0.7686840340347509</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8491319816485101</v>
+        <v>0.8458041814194086</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.9275881287321697</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9426494355641667</v>
+        <v>0.9426494355641666</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.6662223705908724</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3409732731685751</v>
+        <v>0.3404802647196747</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3086631234576778</v>
+        <v>0.3040241932344006</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.41093762253299</v>
+        <v>0.4051059029970626</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5879936739053294</v>
+        <v>0.5808870874982949</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8622711325674316</v>
+        <v>0.8640386790619019</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8358667047602788</v>
+        <v>0.8383875690183262</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8971876978547981</v>
+        <v>0.8993774317680956</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9229347226467559</v>
+        <v>0.9232520487576202</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6295595033902108</v>
+        <v>0.62915895241817</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5926050971504596</v>
+        <v>0.5984354022338748</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.6748961945548924</v>
+        <v>0.6754783686091438</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.767871407695326</v>
+        <v>0.7661801919846505</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4576164887969899</v>
+        <v>0.4558367028758377</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4235684642671833</v>
+        <v>0.4170349955472585</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5251982550808253</v>
+        <v>0.5153664754701643</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6638586169878907</v>
+        <v>0.6661276721201231</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9256119594061986</v>
+        <v>0.9260215015352685</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9073211334821871</v>
+        <v>0.9100100830895528</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9499782173718296</v>
+        <v>0.94985539052191</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9562334182846925</v>
+        <v>0.9562064418644859</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7006543845111971</v>
+        <v>0.7012905510263383</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.671479218923078</v>
+        <v>0.6741948507524266</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7467689515799099</v>
+        <v>0.7443810704667638</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.813885088362166</v>
+        <v>0.8125419057428297</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3827232753492582</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4908650822359458</v>
+        <v>0.490865082235946</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.7009619656490089</v>
@@ -1501,7 +1501,7 @@
         <v>0.6723584456309317</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.7477934574427576</v>
+        <v>0.7477934574427574</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.567223567613991</v>
@@ -1513,7 +1513,7 @@
         <v>0.5592886808140393</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.644930774370758</v>
+        <v>0.6449307743707577</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.29201034950789</v>
+        <v>0.2874219113698306</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2443934236740861</v>
+        <v>0.2484945444916799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3309394069472562</v>
+        <v>0.328241611845832</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4450309485676421</v>
+        <v>0.4448494112259994</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6441530032343389</v>
+        <v>0.6458705157473834</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5296447008209845</v>
+        <v>0.5348586478091085</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6178429270562618</v>
+        <v>0.6180978734402283</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7148408437387512</v>
+        <v>0.7190232689662336</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5252337173937565</v>
+        <v>0.520615776294333</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4374783924397971</v>
+        <v>0.4384320275744584</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5186215719096195</v>
+        <v>0.518378177849478</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6181291514089129</v>
+        <v>0.6156810021869116</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4186387842378529</v>
+        <v>0.4176348561007482</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3738751168704661</v>
+        <v>0.3696455018092584</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4370595892045055</v>
+        <v>0.4391153479172077</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5378190147364894</v>
+        <v>0.5398583875022385</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7518642378628514</v>
+        <v>0.7502516963914686</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6360467004630851</v>
+        <v>0.6405297078241541</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7212312660247219</v>
+        <v>0.7253538044530301</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7762547414785824</v>
+        <v>0.7795674152230313</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6115828619851605</v>
+        <v>0.6113984835927266</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5177960005678547</v>
+        <v>0.5225615788797648</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5978270391980637</v>
+        <v>0.599794424271527</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6731914870565304</v>
+        <v>0.669529753539704</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.7064143311540036</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.7841178267236728</v>
+        <v>0.7841178267236727</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3250490311813861</v>
+        <v>0.3245525141920467</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4193373973404099</v>
+        <v>0.4199376276163997</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5141483430695787</v>
+        <v>0.5132774786570602</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6351154084348603</v>
+        <v>0.634264217676654</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8269131291890429</v>
+        <v>0.8266029757937727</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8222885173460593</v>
+        <v>0.8226079658771344</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8622617069399151</v>
+        <v>0.8617674285340627</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8961948497794108</v>
+        <v>0.8957152698446258</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5838616303508082</v>
+        <v>0.5826453771838973</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.6274246425940401</v>
+        <v>0.6278387167111762</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.6947350594456351</v>
+        <v>0.6948378359995179</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.7726354913281056</v>
+        <v>0.7725483567892708</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3594382224772504</v>
+        <v>0.3590235457654158</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4541266466748808</v>
+        <v>0.453723631169354</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5493842049838429</v>
+        <v>0.5476634777748219</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6724455680291604</v>
+        <v>0.6732410353417373</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8534838897211169</v>
+        <v>0.8526701710792921</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8474577761881998</v>
+        <v>0.8487663793578549</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8847822854321177</v>
+        <v>0.8852395735966979</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9157172619145945</v>
+        <v>0.9156070272378266</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.6078917853595526</v>
+        <v>0.6070590199623638</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6521186203114689</v>
+        <v>0.6513354011408915</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.7164358509539672</v>
+        <v>0.7174201217578549</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7938676764520349</v>
+        <v>0.7934134885047113</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>68516</v>
+        <v>69688</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>92096</v>
+        <v>91768</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>102805</v>
+        <v>102481</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>168705</v>
+        <v>166312</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>230321</v>
+        <v>228783</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>229683</v>
+        <v>226794</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>231925</v>
+        <v>231785</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>222205</v>
+        <v>221924</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>306059</v>
+        <v>307711</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>329759</v>
+        <v>330232</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>343989</v>
+        <v>346570</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>408513</v>
+        <v>401474</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>105322</v>
+        <v>103283</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>130035</v>
+        <v>128357</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>139800</v>
+        <v>140492</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>235546</v>
+        <v>233239</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>270769</v>
+        <v>268756</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>270348</v>
+        <v>268280</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>269336</v>
+        <v>269270</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>273312</v>
+        <v>270730</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>364560</v>
+        <v>366975</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>388344</v>
+        <v>386655</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>401332</v>
+        <v>401161</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>489835</v>
+        <v>485110</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>283743</v>
+        <v>282829</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>316467</v>
+        <v>317343</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>324849</v>
+        <v>324728</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>283549</v>
+        <v>287823</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>517421</v>
+        <v>519480</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>519926</v>
+        <v>521543</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>480611</v>
+        <v>481984</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>448387</v>
+        <v>451780</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>810694</v>
+        <v>809468</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>846616</v>
+        <v>844127</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>816331</v>
+        <v>818149</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>744378</v>
+        <v>743114</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>336862</v>
+        <v>339445</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>368893</v>
+        <v>371830</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>373594</v>
+        <v>374141</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>338373</v>
+        <v>339625</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>552088</v>
+        <v>552003</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>554109</v>
+        <v>553113</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>511097</v>
+        <v>512111</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>476997</v>
+        <v>478557</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>888039</v>
+        <v>882860</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>916392</v>
+        <v>914950</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>875565</v>
+        <v>877544</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>808068</v>
+        <v>808004</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>234646</v>
+        <v>237296</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>364036</v>
+        <v>363720</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>419896</v>
+        <v>421571</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>442622</v>
+        <v>441098</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>628049</v>
+        <v>628272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>652110</v>
+        <v>654806</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>621336</v>
+        <v>621229</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>597101</v>
+        <v>596326</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>871755</v>
+        <v>867223</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1027084</v>
+        <v>1024674</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1051061</v>
+        <v>1051651</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1047576</v>
+        <v>1042296</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>288399</v>
+        <v>288338</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>416110</v>
+        <v>417565</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>470791</v>
+        <v>470680</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>488866</v>
+        <v>487468</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>654260</v>
+        <v>654852</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>680846</v>
+        <v>681579</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>643163</v>
+        <v>642346</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>610765</v>
+        <v>610791</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>938519</v>
+        <v>937103</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1089567</v>
+        <v>1089924</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1106630</v>
+        <v>1108018</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1097059</v>
+        <v>1094970</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>151346</v>
+        <v>150612</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>274046</v>
+        <v>274713</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>356567</v>
+        <v>358180</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>481206</v>
+        <v>483087</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>473608</v>
+        <v>474081</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>559576</v>
+        <v>560013</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>605001</v>
+        <v>604405</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>708319</v>
+        <v>708979</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>627842</v>
+        <v>626674</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>839010</v>
+        <v>842072</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>970314</v>
+        <v>966824</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1198822</v>
+        <v>1196465</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>197423</v>
+        <v>195093</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>326374</v>
+        <v>324267</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>407954</v>
+        <v>410484</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>531068</v>
+        <v>532392</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>495616</v>
+        <v>495168</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>587201</v>
+        <v>586944</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>626890</v>
+        <v>626628</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>722959</v>
+        <v>723595</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>691170</v>
+        <v>691062</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>907738</v>
+        <v>908601</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1031385</v>
+        <v>1031097</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1250559</v>
+        <v>1250898</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>81801</v>
+        <v>81585</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>142749</v>
+        <v>143066</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>220913</v>
+        <v>221559</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>396066</v>
+        <v>395843</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>369949</v>
+        <v>370706</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>387770</v>
+        <v>389573</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>461499</v>
+        <v>462396</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>583079</v>
+        <v>582752</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>452204</v>
+        <v>451108</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>538725</v>
+        <v>536536</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>687724</v>
+        <v>689179</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>985787</v>
+        <v>982851</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>115941</v>
+        <v>116470</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>184891</v>
+        <v>185494</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>266134</v>
+        <v>266610</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>439222</v>
+        <v>438440</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>388695</v>
+        <v>389240</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>414515</v>
+        <v>416366</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>481807</v>
+        <v>481313</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>596406</v>
+        <v>596479</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>507557</v>
+        <v>504707</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>597657</v>
+        <v>597231</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>746273</v>
+        <v>748440</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1034414</v>
+        <v>1030360</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>99763</v>
+        <v>99619</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>95620</v>
+        <v>94182</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>136957</v>
+        <v>135014</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>238717</v>
+        <v>235832</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>295702</v>
+        <v>296308</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>295058</v>
+        <v>295948</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>338068</v>
+        <v>338893</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>404797</v>
+        <v>404937</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>400096</v>
+        <v>399841</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>392769</v>
+        <v>396633</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>479235</v>
+        <v>479648</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>648532</v>
+        <v>647104</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>133891</v>
+        <v>133370</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>131216</v>
+        <v>129192</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>175038</v>
+        <v>171761</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>269517</v>
+        <v>270439</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>317424</v>
+        <v>317564</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>320282</v>
+        <v>321231</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>357959</v>
+        <v>357913</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>419402</v>
+        <v>419390</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>445278</v>
+        <v>445682</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>445045</v>
+        <v>446845</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>530271</v>
+        <v>528575</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>687394</v>
+        <v>686260</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>61288</v>
+        <v>60325</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>61062</v>
+        <v>62087</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>84807</v>
+        <v>84116</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>138048</v>
+        <v>137991</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>215088</v>
+        <v>215661</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>206021</v>
+        <v>208049</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>247242</v>
+        <v>247344</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>332121</v>
+        <v>334065</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>285617</v>
+        <v>283106</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>279474</v>
+        <v>280084</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>340439</v>
+        <v>340280</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>478931</v>
+        <v>477034</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>87865</v>
+        <v>87654</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>93413</v>
+        <v>92356</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>112002</v>
+        <v>112529</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>166830</v>
+        <v>167463</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>251053</v>
+        <v>250515</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>247409</v>
+        <v>249153</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>288614</v>
+        <v>290264</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>360655</v>
+        <v>362194</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>332573</v>
+        <v>332473</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>330784</v>
+        <v>333828</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>392432</v>
+        <v>393724</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>521593</v>
+        <v>518756</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1064750</v>
+        <v>1063124</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1436532</v>
+        <v>1438588</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1740551</v>
+        <v>1737603</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2243017</v>
+        <v>2240011</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2790538</v>
+        <v>2789492</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2924311</v>
+        <v>2925447</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>3052044</v>
+        <v>3050295</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>3347923</v>
+        <v>3346132</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3882859</v>
+        <v>3874771</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4380696</v>
+        <v>4383587</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>4810964</v>
+        <v>4811676</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>5615034</v>
+        <v>5614401</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1177398</v>
+        <v>1176039</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1555710</v>
+        <v>1554330</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1859835</v>
+        <v>1854010</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2374855</v>
+        <v>2377664</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2880205</v>
+        <v>2877459</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>3013821</v>
+        <v>3018475</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>3131758</v>
+        <v>3133376</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>3420853</v>
+        <v>3420441</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>4042667</v>
+        <v>4037129</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>4553110</v>
+        <v>4547641</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>4961239</v>
+        <v>4968055</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>5769336</v>
+        <v>5766036</v>
       </c>
     </row>
     <row r="36">
